--- a/emotion tableau.xlsx
+++ b/emotion tableau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Bureau\Documents annexes\fichier de données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\GitHub\Travail-Master-All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEBECF-F800-4ED5-BB4E-C47E98FDAD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F8F18-3C1B-4CB8-9D03-AC0BDFDBA6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="915" windowWidth="21600" windowHeight="14685" xr2:uid="{309BD0BD-73BE-47FD-B796-0D264591967F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{309BD0BD-73BE-47FD-B796-0D264591967F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="29">
   <si>
     <t>participant</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Graphe HRV</t>
+  </si>
+  <si>
+    <t>écart-type</t>
   </si>
 </sst>
 </file>
@@ -7888,10 +7891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0390B3-4782-477A-A911-9A9E95288207}">
-  <dimension ref="C3:BA47"/>
+  <dimension ref="C3:BA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AX48" sqref="AX48"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9385,6 +9388,35 @@
         <v>97</v>
       </c>
     </row>
+    <row r="17" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <f>_xlfn.STDEV.S(R4:R13)</f>
+        <v>66.283747471675809</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:W17" si="11">_xlfn.STDEV.S(S4:S13)</f>
+        <v>41.736332906047728</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="11"/>
+        <v>85.582906970700449</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="11"/>
+        <v>20.850495038088031</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="11"/>
+        <v>93.876457047429028</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>22.486786243382038</v>
+      </c>
+    </row>
     <row r="19" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
@@ -9560,15 +9592,15 @@
         <v>894.74</v>
       </c>
       <c r="S20">
-        <f t="shared" ref="S20:S29" si="11">L20-K20</f>
+        <f t="shared" ref="S20:S29" si="12">L20-K20</f>
         <v>30.669999999999959</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20:T29" si="12">M20-L20</f>
+        <f t="shared" ref="T20:T29" si="13">M20-L20</f>
         <v>771.33</v>
       </c>
       <c r="U20">
-        <f t="shared" ref="U20:U29" si="13">N20-M20</f>
+        <f t="shared" ref="U20:U29" si="14">N20-M20</f>
         <v>252.01</v>
       </c>
       <c r="V20">
@@ -9596,19 +9628,19 @@
         <v>15</v>
       </c>
       <c r="AF20">
-        <f t="shared" ref="AF20:AI21" si="14">COUNTIF(Z$20:Z$29,$AE20)</f>
+        <f t="shared" ref="AF20:AI21" si="15">COUNTIF(Z$20:Z$29,$AE20)</f>
         <v>6</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AL20">
@@ -9634,15 +9666,15 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <f t="shared" ref="AT20:AV20" si="15">COUNTIF(AN$20:AN$29,$AE20)</f>
+        <f t="shared" ref="AT20:AV20" si="16">COUNTIF(AN$20:AN$29,$AE20)</f>
         <v>2</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AX20">
@@ -9702,15 +9734,15 @@
         <v>729.77</v>
       </c>
       <c r="S21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32.509999999999991</v>
       </c>
       <c r="T21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>365.60000000000014</v>
       </c>
       <c r="U21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>119.23999999999978</v>
       </c>
       <c r="V21">
@@ -9738,19 +9770,19 @@
         <v>16</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL21">
@@ -9772,7 +9804,7 @@
         <v>16</v>
       </c>
       <c r="AS21">
-        <f t="shared" ref="AS21:AS25" si="16">COUNTIF(AM$20:AM$29,$AE21)</f>
+        <f t="shared" ref="AS21:AS25" si="17">COUNTIF(AM$20:AM$29,$AE21)</f>
         <v>2</v>
       </c>
       <c r="AT21">
@@ -9780,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="AU21">
-        <f t="shared" ref="AU21:AU25" si="17">COUNTIF(AO$20:AO$29,$AE21)</f>
+        <f t="shared" ref="AU21:AU25" si="18">COUNTIF(AO$20:AO$29,$AE21)</f>
         <v>2</v>
       </c>
       <c r="AV21">
@@ -9852,7 +9884,7 @@
         <v>393.59999999999997</v>
       </c>
       <c r="U22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>220.38</v>
       </c>
       <c r="V22">
@@ -9880,19 +9912,19 @@
         <v>12</v>
       </c>
       <c r="AF22">
-        <f t="shared" ref="AF22:AF25" si="18">COUNTIF(Z$20:Z$29,$AE22)</f>
+        <f t="shared" ref="AF22:AF25" si="19">COUNTIF(Z$20:Z$29,$AE22)</f>
         <v>2</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22:AI25" si="19">COUNTIF(AA$20:AA$29,$AE22)</f>
+        <f t="shared" ref="AG22:AI25" si="20">COUNTIF(AA$20:AA$29,$AE22)</f>
         <v>1</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL22">
@@ -9914,7 +9946,7 @@
         <v>12</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AT22">
@@ -9922,7 +9954,7 @@
         <v>4</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AV22">
@@ -9986,7 +10018,7 @@
         <v>339.88</v>
       </c>
       <c r="S23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.75</v>
       </c>
       <c r="T23">
@@ -9994,7 +10026,7 @@
         <v>142.91999999999996</v>
       </c>
       <c r="U23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82.009999999999991</v>
       </c>
       <c r="V23">
@@ -10022,19 +10054,19 @@
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AH23">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="AG23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AI23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL23">
@@ -10056,7 +10088,7 @@
         <v>13</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AT23">
@@ -10064,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AV23">
@@ -10128,15 +10160,15 @@
         <v>512.67999999999995</v>
       </c>
       <c r="S24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.960000000000036</v>
       </c>
       <c r="T24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>252.89</v>
       </c>
       <c r="U24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108.51999999999998</v>
       </c>
       <c r="V24">
@@ -10164,19 +10196,19 @@
         <v>14</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG24">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="AG24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AH24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL24">
@@ -10198,7 +10230,7 @@
         <v>14</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AT24">
@@ -10206,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AV24">
@@ -10270,15 +10302,15 @@
         <v>354.3</v>
       </c>
       <c r="S25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27.180000000000007</v>
       </c>
       <c r="T25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>285.69999999999993</v>
       </c>
       <c r="U25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>168.07000000000005</v>
       </c>
       <c r="V25">
@@ -10306,19 +10338,19 @@
         <v>20</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="AG25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AH25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL25">
@@ -10340,7 +10372,7 @@
         <v>20</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT25">
@@ -10348,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AV25">
@@ -10412,15 +10444,15 @@
         <v>177.17</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58.700000000000017</v>
       </c>
       <c r="T26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>381.05999999999995</v>
       </c>
       <c r="U26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.900000000000091</v>
       </c>
       <c r="V26">
@@ -10516,15 +10548,15 @@
         <v>576.20000000000005</v>
       </c>
       <c r="S27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.319999999999936</v>
       </c>
       <c r="T27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>351.06000000000006</v>
       </c>
       <c r="U27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>188.64999999999998</v>
       </c>
       <c r="V27">
@@ -10620,15 +10652,15 @@
         <v>141.11000000000001</v>
       </c>
       <c r="S28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.039999999999992</v>
       </c>
       <c r="T28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125.83000000000001</v>
       </c>
       <c r="U28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115.26999999999998</v>
       </c>
       <c r="V28">
@@ -10724,15 +10756,15 @@
         <v>143.83000000000001</v>
       </c>
       <c r="S29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.5</v>
       </c>
       <c r="T29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>644.88</v>
       </c>
       <c r="U29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62.269999999999982</v>
       </c>
       <c r="V29">
@@ -10789,27 +10821,27 @@
         <v>5</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30:W30" si="20">AVERAGE(R20:R29)</f>
+        <f t="shared" ref="R30:W30" si="21">AVERAGE(R20:R29)</f>
         <v>417.9620000000001</v>
       </c>
       <c r="S30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>36.060999999999993</v>
       </c>
       <c r="T30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>371.48699999999997</v>
       </c>
       <c r="U30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>134.83199999999997</v>
       </c>
       <c r="V30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>960.34199999999998</v>
       </c>
       <c r="W30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>162.30000000000001</v>
       </c>
     </row>
@@ -10822,23 +10854,23 @@
         <v>141.11000000000001</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31:W31" si="21">MIN(S20:S29)</f>
+        <f t="shared" ref="S31:W31" si="22">MIN(S20:S29)</f>
         <v>13.039999999999992</v>
       </c>
       <c r="T31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>125.83000000000001</v>
       </c>
       <c r="U31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31.900000000000091</v>
       </c>
       <c r="V31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>395.25</v>
       </c>
       <c r="W31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>102</v>
       </c>
     </row>
@@ -10851,24 +10883,53 @@
         <v>894.74</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32:W32" si="22">MAX(S20:S29)</f>
+        <f t="shared" ref="S32:W32" si="23">MAX(S20:S29)</f>
         <v>58.700000000000017</v>
       </c>
       <c r="T32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>771.33</v>
       </c>
       <c r="U32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>252.01</v>
       </c>
       <c r="V32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1948.75</v>
       </c>
       <c r="W32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33">
+        <f>_xlfn.STDEV.S(R20:R29)</f>
+        <v>256.07004822031689</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33:W33" si="24">_xlfn.STDEV.S(S20:S29)</f>
+        <v>13.144380675152938</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="24"/>
+        <v>202.66710422376008</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="24"/>
+        <v>70.725442192561331</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="24"/>
+        <v>429.63898676809038</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="24"/>
+        <v>69.479093578172439</v>
       </c>
     </row>
     <row r="34" spans="3:53" x14ac:dyDescent="0.25">
@@ -11046,15 +11107,15 @@
         <v>704.49</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:S44" si="23">L35-K35</f>
+        <f t="shared" ref="S35:S44" si="25">L35-K35</f>
         <v>53.939999999999941</v>
       </c>
       <c r="T35">
-        <f t="shared" ref="T35:T44" si="24">M35-L35</f>
+        <f t="shared" ref="T35:T44" si="26">M35-L35</f>
         <v>238.87</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35:U44" si="25">N35-M35</f>
+        <f t="shared" ref="U35:U44" si="27">N35-M35</f>
         <v>81.650000000000091</v>
       </c>
       <c r="V35">
@@ -11086,15 +11147,15 @@
         <v>3</v>
       </c>
       <c r="AG35">
-        <f t="shared" ref="AG35:AI40" si="26">COUNTIF(AA$35:AA$44,$AE35)</f>
+        <f t="shared" ref="AG35:AI40" si="28">COUNTIF(AA$35:AA$44,$AE35)</f>
         <v>3</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="AL35">
@@ -11120,15 +11181,15 @@
         <v>4</v>
       </c>
       <c r="AT35">
-        <f t="shared" ref="AT35:AV35" si="27">COUNTIF(AN$35:AN$44,$AE35)</f>
+        <f t="shared" ref="AT35:AV35" si="29">COUNTIF(AN$35:AN$44,$AE35)</f>
         <v>2</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="AX35">
@@ -11188,15 +11249,15 @@
         <v>326.25</v>
       </c>
       <c r="S36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="T36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>509.91999999999996</v>
       </c>
       <c r="U36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>133.98000000000013</v>
       </c>
       <c r="V36">
@@ -11224,19 +11285,19 @@
         <v>16</v>
       </c>
       <c r="AF36">
-        <f t="shared" ref="AF36:AF40" si="28">COUNTIF(Z$35:Z$44,$AE36)</f>
+        <f t="shared" ref="AF36:AF40" si="30">COUNTIF(Z$35:Z$44,$AE36)</f>
         <v>2</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="AL36">
@@ -11258,7 +11319,7 @@
         <v>16</v>
       </c>
       <c r="AS36">
-        <f t="shared" ref="AS36:AS40" si="29">COUNTIF(AM$35:AM$44,$AE36)</f>
+        <f t="shared" ref="AS36:AS40" si="31">COUNTIF(AM$35:AM$44,$AE36)</f>
         <v>3</v>
       </c>
       <c r="AT36">
@@ -11266,7 +11327,7 @@
         <v>6</v>
       </c>
       <c r="AU36">
-        <f t="shared" ref="AU36:AU40" si="30">COUNTIF(AO$35:AO$44,$AE36)</f>
+        <f t="shared" ref="AU36:AU40" si="32">COUNTIF(AO$35:AO$44,$AE36)</f>
         <v>3</v>
       </c>
       <c r="AV36">
@@ -11330,15 +11391,15 @@
         <v>121.38</v>
       </c>
       <c r="S37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>51.360000000000014</v>
       </c>
       <c r="T37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>276.42</v>
       </c>
       <c r="U37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>104.16000000000003</v>
       </c>
       <c r="V37">
@@ -11366,19 +11427,19 @@
         <v>12</v>
       </c>
       <c r="AF37">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AG37">
         <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="AG37">
-        <f t="shared" si="26"/>
+      <c r="AH37">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="AH37">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
       <c r="AI37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AL37">
@@ -11400,7 +11461,7 @@
         <v>12</v>
       </c>
       <c r="AS37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AT37">
@@ -11408,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AV37">
@@ -11457,15 +11518,15 @@
         <v>232.08</v>
       </c>
       <c r="S38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>83.4</v>
       </c>
       <c r="T38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>127.10999999999996</v>
       </c>
       <c r="U38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>135.20999999999998</v>
       </c>
       <c r="V38">
@@ -11493,19 +11554,19 @@
         <v>13</v>
       </c>
       <c r="AF38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG38">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AG38">
-        <f t="shared" si="26"/>
+      <c r="AH38">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AH38">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
       <c r="AI38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL38">
@@ -11527,7 +11588,7 @@
         <v>13</v>
       </c>
       <c r="AS38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AT38">
@@ -11535,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AV38">
@@ -11590,15 +11651,15 @@
         <v>184.43</v>
       </c>
       <c r="S39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>203.09999999999997</v>
       </c>
       <c r="T39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>504.94000000000005</v>
       </c>
       <c r="U39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92.399999999999977</v>
       </c>
       <c r="V39">
@@ -11626,21 +11687,21 @@
         <v>14</v>
       </c>
       <c r="AF39">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AI39">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AG39">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AI39">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
       <c r="AL39">
         <v>25</v>
       </c>
@@ -11660,7 +11721,7 @@
         <v>14</v>
       </c>
       <c r="AS39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AT39">
@@ -11668,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AV39">
@@ -11732,15 +11793,15 @@
         <v>139.22</v>
       </c>
       <c r="S40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>152.63000000000002</v>
       </c>
       <c r="T40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>536.28</v>
       </c>
       <c r="U40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>160.63</v>
       </c>
       <c r="V40">
@@ -11768,19 +11829,19 @@
         <v>20</v>
       </c>
       <c r="AF40">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG40">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AG40">
-        <f t="shared" si="26"/>
+      <c r="AH40">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AH40">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
       <c r="AI40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL40">
@@ -11802,7 +11863,7 @@
         <v>20</v>
       </c>
       <c r="AS40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AT40">
@@ -11810,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="AU40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AV40">
@@ -11859,15 +11920,15 @@
         <v>300.69</v>
       </c>
       <c r="S41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33.649999999999977</v>
       </c>
       <c r="T41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>294.79000000000002</v>
       </c>
       <c r="U41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>135.89999999999998</v>
       </c>
       <c r="V41">
@@ -11954,15 +12015,15 @@
         <v>155.91</v>
       </c>
       <c r="S42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>53.870000000000005</v>
       </c>
       <c r="T42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>210.17</v>
       </c>
       <c r="U42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>57.100000000000023</v>
       </c>
       <c r="V42">
@@ -12058,15 +12119,15 @@
         <v>218.32</v>
       </c>
       <c r="S43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>110.31</v>
       </c>
       <c r="T43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>529.83000000000004</v>
       </c>
       <c r="U43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>99.779999999999973</v>
       </c>
       <c r="V43">
@@ -12162,15 +12223,15 @@
         <v>338.83</v>
       </c>
       <c r="S44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>44.340000000000032</v>
       </c>
       <c r="T44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>577.54</v>
       </c>
       <c r="U44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>102.79999999999995</v>
       </c>
       <c r="V44">
@@ -12227,27 +12288,27 @@
         <v>5</v>
       </c>
       <c r="R45">
-        <f t="shared" ref="R45:W45" si="31">AVERAGE(R35:R44)</f>
+        <f t="shared" ref="R45:W45" si="33">AVERAGE(R35:R44)</f>
         <v>272.15999999999997</v>
       </c>
       <c r="S45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>85.76</v>
       </c>
       <c r="T45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>380.58699999999999</v>
       </c>
       <c r="U45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>110.36100000000002</v>
       </c>
       <c r="V45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>848.86800000000005</v>
       </c>
       <c r="W45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>227</v>
       </c>
     </row>
@@ -12260,23 +12321,23 @@
         <v>121.38</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:W46" si="32">MIN(S35:S44)</f>
+        <f t="shared" ref="S46:W46" si="34">MIN(S35:S44)</f>
         <v>33.649999999999977</v>
       </c>
       <c r="T46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>127.10999999999996</v>
       </c>
       <c r="U46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>57.100000000000023</v>
       </c>
       <c r="V46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>477.05</v>
       </c>
       <c r="W46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>109</v>
       </c>
     </row>
@@ -12289,24 +12350,53 @@
         <v>704.49</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:W47" si="33">MAX(S35:S44)</f>
+        <f t="shared" ref="S47:W47" si="35">MAX(S35:S44)</f>
         <v>203.09999999999997</v>
       </c>
       <c r="T47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>577.54</v>
       </c>
       <c r="U47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>160.63</v>
       </c>
       <c r="V47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1078.95</v>
       </c>
       <c r="W47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>28</v>
+      </c>
+      <c r="R48">
+        <f>_xlfn.STDEV.S(R35:R44)</f>
+        <v>170.36471537394252</v>
+      </c>
+      <c r="S48">
+        <f>_xlfn.STDEV.S(S35:S44)</f>
+        <v>54.477635778363215</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="S48:W48" si="36">_xlfn.STDEV.S(T35:T44)</f>
+        <v>166.36075312070727</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="36"/>
+        <v>30.814453120428947</v>
+      </c>
+      <c r="V48">
+        <f>_xlfn.STDEV.S(V35:V44)</f>
+        <v>233.83606526320455</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="36"/>
+        <v>77.40226812639996</v>
       </c>
     </row>
   </sheetData>
